--- a/assets/tickets_repas_test.xlsx
+++ b/assets/tickets_repas_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\Programmation\Morphoz_SnackApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6249613A-EDAF-4F9B-BFF0-24ACEC3F5A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4F393F-F16E-4184-B4E6-13EEB97173F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B955A584-3B52-4522-B31D-EA884E627CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B955A584-3B52-4522-B31D-EA884E627CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Nom</t>
   </si>
@@ -48,19 +48,13 @@
     <t>Albert DE PETIGNY</t>
   </si>
   <si>
-    <t>20/06/2025</t>
-  </si>
-  <si>
-    <t>21/06/2025</t>
+    <t>Quantité</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0&quot; h&quot;"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -107,16 +101,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,17 +125,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EAD74D-61AF-4FC8-9016-36F7A577F90E}" name="Tableau1" displayName="Tableau1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{03EAD74D-61AF-4FC8-9016-36F7A577F90E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EAD74D-61AF-4FC8-9016-36F7A577F90E}" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{03EAD74D-61AF-4FC8-9016-36F7A577F90E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
     <sortCondition ref="B2:B4"/>
     <sortCondition ref="A2:A4"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B3AE9435-DC9D-4735-8983-7C1503CBD147}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{76C416A3-49CA-4100-8163-3A395D308AA4}" name="Catégorie"/>
-    <tableColumn id="3" xr3:uid="{46534DB1-61D7-4665-9ED8-4C0BA2EEE3B6}" name="20/06/2025"/>
-    <tableColumn id="4" xr3:uid="{61E9305C-A27B-4DFD-B327-ACFF1EB98ED6}" name="21/06/2025"/>
+    <tableColumn id="4" xr3:uid="{61E9305C-A27B-4DFD-B327-ACFF1EB98ED6}" name="Quantité"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,20 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6AA7DC-685D-49B5-B554-4EEA248AA72F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,23 +460,19 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,19 +482,15 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
     </row>
